--- a/Document/TemplateTesting.xlsx
+++ b/Document/TemplateTesting.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="150" windowWidth="20115" windowHeight="7995"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="119">
   <si>
     <t>ID</t>
   </si>
@@ -42,45 +42,409 @@
     <t>Note</t>
   </si>
   <si>
-    <t>RNC1</t>
-  </si>
-  <si>
     <t>Pass</t>
   </si>
   <si>
-    <t>1.2. &lt;Guest&gt; Register new contract payment</t>
-  </si>
-  <si>
-    <t>RNCP1</t>
-  </si>
-  <si>
-    <t>Test guest choose direct payment for register new contract</t>
-  </si>
-  <si>
-    <t>1. Guest registered contract succeed like test case "RNC1".
-2. Guest choose direct payment.</t>
-  </si>
-  <si>
-    <t>Show company address map</t>
-  </si>
-  <si>
-    <t>Test create account</t>
-  </si>
-  <si>
-    <t>1. Register account "ABC"</t>
-  </si>
-  <si>
-    <t>Account create successful</t>
-  </si>
-  <si>
-    <t>1.1. &lt;Guest&gt; Register new account</t>
+    <t>1.1. &lt;Staff&gt; Create New Equipment</t>
+  </si>
+  <si>
+    <t>CNE1</t>
+  </si>
+  <si>
+    <t>Test create equipment</t>
+  </si>
+  <si>
+    <t>CNE2</t>
+  </si>
+  <si>
+    <t>Test create equipment with serial number is exist</t>
+  </si>
+  <si>
+    <t>1. Click "Tạo thiết bị" button
+2. Input equipment name "Mitsubishi", serial number "45688796575"
+3. Click "Tạo" button</t>
+  </si>
+  <si>
+    <t>1. Click "Tạo thiết bị" button
+2. Input equipment name "Mitsubishi", serial number "45688796575", … 
+3. Click "Tạo" button</t>
+  </si>
+  <si>
+    <t>Error message: "Số serial đã tồn tại!"</t>
+  </si>
+  <si>
+    <t>CNE3</t>
+  </si>
+  <si>
+    <t>Test create equipment with serial number is empty</t>
+  </si>
+  <si>
+    <t>1. Click "Tạo thiết bị" button
+2. No input equipment name 
+3. Click "Tạo" button</t>
+  </si>
+  <si>
+    <t>Error message: "Tên thiết bị không được bỏ trống!"</t>
+  </si>
+  <si>
+    <t>RE1</t>
+  </si>
+  <si>
+    <t>Test remove eqiupment don't used</t>
+  </si>
+  <si>
+    <t>1. Staff click "X" button of eqiupment "45688796575"
+2. Click "Xóa" button</t>
+  </si>
+  <si>
+    <t>Equipment create successful and show message: "Thiết bị đã được tạo thành công"</t>
+  </si>
+  <si>
+    <t>1. After step 1, show message: "Bạn có muốn xóa thiết bị Misubishi (serial: asdsadasdas)?"
+2. After step 2, eqiupment set false status</t>
+  </si>
+  <si>
+    <t>Test remove eqiupment are using</t>
+  </si>
+  <si>
+    <t>1. Staff click "X" button of eqiupment "8767678678"
+2. Click "Xóa" button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. After step 1, show message: "Bạn có muốn gỡ thiết bị Samsung (serial: 8767678678) ra khỏi phòng 101?"
+2. Equipment remove out 101 room </t>
+  </si>
+  <si>
+    <t>1.2. &lt;Staff&gt; Remove Equipment</t>
+  </si>
+  <si>
+    <t>UE1</t>
+  </si>
+  <si>
+    <t>Test update eqiupment</t>
+  </si>
+  <si>
+    <t>1.3. &lt;Staff&gt; Update Equipment</t>
+  </si>
+  <si>
+    <t>1. Choose equipment is "Hitachi"
+2. Change name from "Hitachi" to "Daikin" 
+3. Click "Cập nhật" button</t>
+  </si>
+  <si>
+    <t>Equipment update success and show message: "Cập nhật thành công"</t>
+  </si>
+  <si>
+    <t>UE2</t>
+  </si>
+  <si>
+    <t>1. Choose equipment is "Daikin" with serial number is "5494949959"
+2. Change serial number from "5494949959" to "54949689213" 
+3. Click "Cập nhật" button</t>
+  </si>
+  <si>
+    <t>Test update serial number of eqiupment, but new serial bumber is exist</t>
+  </si>
+  <si>
+    <t>Equipment not update and show message: "Số serial đã tồn tại!"</t>
+  </si>
+  <si>
+    <t>2.1. &lt;Staff&gt; Create New Equipment Category</t>
+  </si>
+  <si>
+    <t>CNEC1</t>
+  </si>
+  <si>
+    <t>Test create equipment category</t>
+  </si>
+  <si>
+    <t>1. Click "Tạo loại thiết bị" button
+2. Input name is "Màng chiếu", and choose manage check box, …
+3. Click "Tạo" button</t>
+  </si>
+  <si>
+    <t>Test create equipment category with name is empty</t>
+  </si>
+  <si>
+    <t>1. Click "Tạo loại thiết bị" button
+2. Input name is empty string, and choose manage check box, …
+3. Click "Tạo" button</t>
+  </si>
+  <si>
+    <t>Show error message: "Tên loại thiết bị không được bỏ trống!"</t>
+  </si>
+  <si>
+    <t>CNEC2</t>
+  </si>
+  <si>
+    <t>CNEC3</t>
+  </si>
+  <si>
+    <t>Test create equipment category with no image</t>
+  </si>
+  <si>
+    <t>1. Click "Tạo loại thiết bị" button
+2. Input name is "Quạt tản nhiệt", and choose manage check box, not choose image, ...
+3. Click "Tạo" button</t>
+  </si>
+  <si>
+    <t>Show warning message: "Hãy chọn tập tin có đuôi là: .jpg, .jpeg,.png, .gif"</t>
+  </si>
+  <si>
+    <t>2.2. &lt;Staff&gt; Update Equipment Category</t>
+  </si>
+  <si>
+    <t>UEC1</t>
+  </si>
+  <si>
+    <t>Test update category name</t>
+  </si>
+  <si>
+    <t>1. Choose equipment category is "Màng chiếu"
+2. Change name from "Màng chiếu" to "Phụ kiện máy chiếu" 
+3. Click "Cập nhật" button</t>
+  </si>
+  <si>
+    <t>Equipment category create success and show message: "Thiết bị đã được tạo thành công"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equipment category update success and show message "Cập nhật loại thiết bị thành công!" </t>
+  </si>
+  <si>
+    <t>UEC2</t>
+  </si>
+  <si>
+    <t>Test update category name is empty</t>
+  </si>
+  <si>
+    <t>1. Choose equipment category is "Phụ kiện máy chiếu" 
+2. Change name from "Phụ kiện máy chiếu" to empty string
+3. Click "Cập nhật" button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show message "Tên loại thiết bị không được bỏ trống!" </t>
+  </si>
+  <si>
+    <t>REC1</t>
+  </si>
+  <si>
+    <t>Test remove category not use</t>
+  </si>
+  <si>
+    <t>1. Choose equipment category is "Phụ kiện máy chiếu" and click remove button
+2. Click Xóa" button</t>
+  </si>
+  <si>
+    <t>1. After step 1, show message: "Bạn có muốn xóa "Phụ kiện máy chiếu" ra khỏi hệ thống? Điều này sẽ ảnh hưởng tới các thiết bị liên quan!"
+2. Equipment category set false status</t>
+  </si>
+  <si>
+    <t>Test remove category are using</t>
+  </si>
+  <si>
+    <t>1. Choose equipment category is "Máy chiếu" and click remove button
+2. Click Xóa" button</t>
+  </si>
+  <si>
+    <t>1. After step 1, show message: "Bạn có muốn xóa "Máy chiếu" ra khỏi hệ thống? Điều này sẽ ảnh hưởng tới các thiết bị liên quan!"
+2. Equipment category set false status</t>
+  </si>
+  <si>
+    <t>2.3. &lt;Staff&gt; Remove Equipment Category</t>
+  </si>
+  <si>
+    <t>3.1. &lt;Staff&gt; Create New Room Type</t>
+  </si>
+  <si>
+    <t>CNRT1</t>
+  </si>
+  <si>
+    <t>Test create room type</t>
+  </si>
+  <si>
+    <t>1. Click "Tạo loại phòng" button
+2. Input name is "Phòng chuẩn", with equipments are "Máy chiếu", "Máy lạnh"x2, "Loa",… And size 2x5x3 
+3. Click "Xem trước" button
+4.Click "Tạo loại phòng" button</t>
+  </si>
+  <si>
+    <t>1. After step 3, show map of room type
+2. After step 4, room type create success and show message: "Loại phòng đã được tạo thành công"</t>
+  </si>
+  <si>
+    <t>3.2. &lt;Staff&gt; Update Room Type</t>
+  </si>
+  <si>
+    <t>URT1</t>
+  </si>
+  <si>
+    <t>Test update roomtype not use</t>
+  </si>
+  <si>
+    <t>Not pass</t>
+  </si>
+  <si>
+    <t>Not pass. Show meesage: "Số lượng không hợp lệ!"</t>
+  </si>
+  <si>
+    <t>1. Click "Chỉnh sửa" button of "Phòng thực hành" room type
+2. Add "Bóng đèn" equipment
+3. Click "Xem trước" button
+4. Click "Cập nhật" button</t>
+  </si>
+  <si>
+    <t>1. Atfer step 3, show map of room type and have new equipment
+2. After step 4, room typr</t>
+  </si>
+  <si>
+    <t>3.2. &lt;Staff&gt; Remove Room Type</t>
+  </si>
+  <si>
+    <t>RRT1</t>
+  </si>
+  <si>
+    <t>Test remove roomtype are using</t>
+  </si>
+  <si>
+    <t>1. Show message: "Không thể xóa loại phòng này! Bạn phải gỡ ra khỏi phòng học trước!"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click delete button of "Phòng thực hành"
+</t>
+  </si>
+  <si>
+    <t>RRT2</t>
+  </si>
+  <si>
+    <t>Test remove roomtype don't use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click delete button of "Phòng demo" room type
+2. Click "Xóa" button
+</t>
+  </si>
+  <si>
+    <t>1. After step 1, show message: "Bạn có muốn xóa loại phòng demo!"
+2. Room type change false status, and show message: "Xóa loại phòng thành công!"</t>
+  </si>
+  <si>
+    <t>4.1. &lt;Staff&gt; Create New Classroom</t>
+  </si>
+  <si>
+    <t>CNC1</t>
+  </si>
+  <si>
+    <t>Test create new classroom</t>
+  </si>
+  <si>
+    <t>1. Click "Tạo phòng học" button
+2. Input room name is "501" and click "Chọn" button
+3. Choose "Phòng thiết bị" room type and click "Chọn" button
+4. Click "Tạo phòng" button</t>
+  </si>
+  <si>
+    <t>1. After step 2, show list room type with map of type
+2. After step 4, classroom create success, and show message: "Phòng 501 đã được tạo thành công!"</t>
+  </si>
+  <si>
+    <t>CNC2</t>
+  </si>
+  <si>
+    <t>Test create classroom, but not choose room type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click "Tạo phòng học" button
+2. Input room name is "502"
+3. Click "Tạo phòng" button
+</t>
+  </si>
+  <si>
+    <t>1.Show message: "Phải chọn loại phòng!"</t>
+  </si>
+  <si>
+    <t>CNC3</t>
+  </si>
+  <si>
+    <t>1. After step 2, show list room type with map of type
+2. After step 4, show message: "Số phòng không được bỏ trống!"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click "Tạo phòng học" button
+2. Click "Chọn" button
+3. Choose "Phòng thiết bị" room type and click "Chọn" button
+4. Click "Tạo phòng" button
+</t>
+  </si>
+  <si>
+    <t>4.2. &lt;Staff&gt; Update Classroom</t>
+  </si>
+  <si>
+    <t>Test update classroom</t>
+  </si>
+  <si>
+    <t>1. Click update button of "601" room
+2. Click "Chỉnh sửa" button
+3. Click "Chọn" button
+4. Choose "Phòng thiết bị" room type and click "Chọn" button
+5. Click "Cập nhật" button</t>
+  </si>
+  <si>
+    <t>1. After step 3, show list room type with map of type
+5. After step 5, classroom update success, and show message: "Phòng 601 đã được cập nhật thành công!"</t>
+  </si>
+  <si>
+    <t>Test create classroom, but not input room type name</t>
+  </si>
+  <si>
+    <t>Test update room name</t>
+  </si>
+  <si>
+    <t>1. Click update button of "601" room
+2. Click "Chỉnh sửa" button
+3. Change room name from "601" to "610"
+4. Click "Cập nhật" button</t>
+  </si>
+  <si>
+    <t>1. Classroom update success, and show message: "Đã cập nhật thành công phòng 601!"</t>
+  </si>
+  <si>
+    <t>4.3. &lt;Staff&gt; Remove Classroom</t>
+  </si>
+  <si>
+    <t>RC1</t>
+  </si>
+  <si>
+    <t>RC2</t>
+  </si>
+  <si>
+    <t>Test remove room are using</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click remove button of "508" room
+2. Click "Xóa" button
+</t>
+  </si>
+  <si>
+    <t>1. After step 1, show message: 'Bạn có muốn xóa phòng học 508!"
+5. After step 5, classroom change to disable success, and show message: "Phòng 508 đã được xóa thành công!"</t>
+  </si>
+  <si>
+    <t>Test remove room don't use</t>
+  </si>
+  <si>
+    <t>1. Click remove button of "600" room
+2. Click "Xóa" button</t>
+  </si>
+  <si>
+    <t>1. After step 1, show message: 'Bạn có muốn xóa phòng học 600!"
+5. After step 5, classroom change to disable success, and show message: "Phòng 600 đã được xóa thành công!"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,6 +460,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -126,7 +496,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -139,6 +509,21 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -441,10 +826,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,7 +845,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -470,7 +855,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -496,92 +881,1035 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="51" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G3" s="4">
-        <v>42198</v>
+        <v>42229</v>
       </c>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+    <row r="4" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="4">
+        <v>42229</v>
+      </c>
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" ht="51" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="4">
+        <v>42229</v>
+      </c>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="4">
-        <v>42198</v>
-      </c>
-      <c r="H6" s="3"/>
+    <row r="9" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="4">
+        <v>42229</v>
+      </c>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="4">
+        <v>42229</v>
+      </c>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="8">
+        <v>42229</v>
+      </c>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" s="8">
+        <v>42229</v>
+      </c>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="8">
+        <v>42229</v>
+      </c>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="8">
+        <v>42229</v>
+      </c>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:8" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="8">
+        <v>42229</v>
+      </c>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="8">
+        <v>42229</v>
+      </c>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:8" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="8">
+        <v>42229</v>
+      </c>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="102" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" s="8">
+        <v>42229</v>
+      </c>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:8" ht="102" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" s="8">
+        <v>42229</v>
+      </c>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G35" s="8">
+        <v>42229</v>
+      </c>
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="7"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="7"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="8">
+        <v>42230</v>
+      </c>
+      <c r="H41" s="7"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" s="8">
+        <v>42230</v>
+      </c>
+      <c r="H45" s="7"/>
+    </row>
+    <row r="46" spans="1:8" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G46" s="8">
+        <v>42230</v>
+      </c>
+      <c r="H46" s="7"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+    </row>
+    <row r="49" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G50" s="8">
+        <v>42230</v>
+      </c>
+      <c r="H50" s="7"/>
+    </row>
+    <row r="51" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G51" s="8">
+        <v>42230</v>
+      </c>
+      <c r="H51" s="7"/>
+    </row>
+    <row r="52" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="8">
+        <v>42230</v>
+      </c>
+      <c r="H52" s="7"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+    </row>
+    <row r="55" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G56" s="8">
+        <v>42230</v>
+      </c>
+      <c r="H56" s="7"/>
+    </row>
+    <row r="57" spans="1:8" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57" s="8">
+        <v>42230</v>
+      </c>
+      <c r="H57" s="7"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+    </row>
+    <row r="60" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="102" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G61" s="8">
+        <v>42230</v>
+      </c>
+      <c r="H61" s="7"/>
+    </row>
+    <row r="62" spans="1:8" ht="102" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="8">
+        <v>42230</v>
+      </c>
+      <c r="H62" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Document/TemplateTesting.xlsx
+++ b/Document/TemplateTesting.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="129">
   <si>
     <t>ID</t>
   </si>
@@ -268,10 +268,6 @@
 4.Click "Tạo loại phòng" button</t>
   </si>
   <si>
-    <t>1. After step 3, show map of room type
-2. After step 4, room type create success and show message: "Loại phòng đã được tạo thành công"</t>
-  </si>
-  <si>
     <t>3.2. &lt;Staff&gt; Update Room Type</t>
   </si>
   <si>
@@ -282,19 +278,12 @@
   </si>
   <si>
     <t>Not pass</t>
-  </si>
-  <si>
-    <t>Not pass. Show meesage: "Số lượng không hợp lệ!"</t>
   </si>
   <si>
     <t>1. Click "Chỉnh sửa" button of "Phòng thực hành" room type
 2. Add "Bóng đèn" equipment
 3. Click "Xem trước" button
 4. Click "Cập nhật" button</t>
-  </si>
-  <si>
-    <t>1. Atfer step 3, show map of room type and have new equipment
-2. After step 4, room typr</t>
   </si>
   <si>
     <t>3.2. &lt;Staff&gt; Remove Room Type</t>
@@ -438,6 +427,56 @@
   <si>
     <t>1. After step 1, show message: 'Bạn có muốn xóa phòng học 600!"
 5. After step 5, classroom change to disable success, and show message: "Phòng 600 đã được xóa thành công!"</t>
+  </si>
+  <si>
+    <t>1. After step 3, show map of room type
+2. After step 4, room type create success and show message: "Loại phòng đã được tạo thành công!"</t>
+  </si>
+  <si>
+    <t>CNRT2</t>
+  </si>
+  <si>
+    <t>Test create room type with name is empty</t>
+  </si>
+  <si>
+    <t>1. Click "Tạo loại phòng" button
+2. Choose equipments are "Máy chiếu", "Máy lạnh"x2, "Loa",… And size 2x5x3 
+3. Click "Xem trước" button
+4.Click "Tạo loại phòng" button</t>
+  </si>
+  <si>
+    <t>1. After step 3, show map of room type
+2. After step 4, show message: "Tên loại phòng không được bỏ trống!"</t>
+  </si>
+  <si>
+    <t>Test create room type with name is exist</t>
+  </si>
+  <si>
+    <t>1. After step 3, show map of room type
+2. After step 4, show message: "Tên loại phòng đã tồn tại trong hệ thống!!"</t>
+  </si>
+  <si>
+    <t>No pass</t>
+  </si>
+  <si>
+    <t>URT2</t>
+  </si>
+  <si>
+    <t>1. Atfer step 3, show map of room type and have new equipment
+2. After step 4, room type update success and show message: "Loại phòng thực hành cập nhật thành công!"</t>
+  </si>
+  <si>
+    <t>Test update roomtype are use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Atfer step 3, show map of room type and have new equipment
+2. After step 4, room type udpate success, show message: "Loại phòng thực hành cập nhật thành công!" </t>
+  </si>
+  <si>
+    <t>1. Click "Chỉnh sửa" button of "Phòng thực hành" room type
+2. Add "Máy lạnh" equipment
+3. Click "Xem trước" button
+4. Click "Cập nhật" button</t>
   </si>
 </sst>
 </file>
@@ -826,10 +865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1124,7 +1163,7 @@
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G15" s="8">
         <v>42229</v>
@@ -1448,35 +1487,59 @@
         <v>72</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="7" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="G35" s="8">
         <v>42229</v>
       </c>
       <c r="H35" s="7"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
+    <row r="36" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>120</v>
+      </c>
       <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="8"/>
+      <c r="F36" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" s="8">
+        <v>42230</v>
+      </c>
       <c r="H36" s="7"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
+    <row r="37" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="8"/>
+      <c r="F37" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G37" s="8">
+        <v>42230</v>
+      </c>
       <c r="H37" s="7"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -1491,7 +1554,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -1527,190 +1590,192 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="102" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B41" s="7" t="s">
-        <v>76</v>
-      </c>
       <c r="C41" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
+      <c r="F41" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="G41" s="8">
         <v>42230</v>
       </c>
       <c r="H41" s="7"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
+    <row r="42" spans="1:8" ht="102" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>127</v>
+      </c>
       <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
+      <c r="F42" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="8">
+        <v>42230</v>
+      </c>
       <c r="H42" s="7"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="7"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D46" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-    </row>
-    <row r="44" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="51" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G45" s="8">
-        <v>42230</v>
-      </c>
-      <c r="H45" s="7"/>
-    </row>
-    <row r="46" spans="1:8" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="E46" s="7"/>
       <c r="F46" s="7" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="G46" s="8">
         <v>42230</v>
       </c>
       <c r="H46" s="7"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+    <row r="47" spans="1:8" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G47" s="8">
+        <v>42230</v>
+      </c>
+      <c r="H47" s="7"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+    </row>
+    <row r="50" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C51" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-    </row>
-    <row r="49" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
+      <c r="D51" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G50" s="8">
-        <v>42230</v>
-      </c>
-      <c r="H50" s="7"/>
-    </row>
-    <row r="51" spans="1:8" ht="51" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="E51" s="7"/>
       <c r="F51" s="7" t="s">
@@ -1721,18 +1786,18 @@
       </c>
       <c r="H51" s="7"/>
     </row>
-    <row r="52" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="51" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E52" s="7"/>
       <c r="F52" s="7" t="s">
@@ -1743,78 +1808,78 @@
       </c>
       <c r="H52" s="7"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+    <row r="53" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G53" s="8">
+        <v>42230</v>
+      </c>
+      <c r="H53" s="7"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+    </row>
+    <row r="56" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D57" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-    </row>
-    <row r="55" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A56" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G56" s="8">
-        <v>42230</v>
-      </c>
-      <c r="H56" s="7"/>
-    </row>
-    <row r="57" spans="1:8" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="E57" s="7"/>
       <c r="F57" s="7" t="s">
@@ -1825,78 +1890,78 @@
       </c>
       <c r="H57" s="7"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-    </row>
-    <row r="60" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+    <row r="58" spans="1:8" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="8">
+        <v>42230</v>
+      </c>
+      <c r="H58" s="7"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+    </row>
+    <row r="61" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B61" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C61" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D61" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="E61" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="F61" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="G61" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H60" s="2" t="s">
+      <c r="H61" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" ht="102" x14ac:dyDescent="0.25">
-      <c r="A61" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G61" s="8">
-        <v>42230</v>
-      </c>
-      <c r="H61" s="7"/>
     </row>
     <row r="62" spans="1:8" ht="102" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D62" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="E62" s="7"/>
       <c r="F62" s="7" t="s">
@@ -1906,6 +1971,28 @@
         <v>42230</v>
       </c>
       <c r="H62" s="7"/>
+    </row>
+    <row r="63" spans="1:8" ht="102" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G63" s="8">
+        <v>42230</v>
+      </c>
+      <c r="H63" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
